--- a/Camping_OM_Resources/Dataset/Camping1_with_Space.xlsx
+++ b/Camping_OM_Resources/Dataset/Camping1_with_Space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EA75139-96D2-4349-8AFE-F1A11607D12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04989178-8DEB-9A4A-AE40-34BD5630E317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{7828C3CB-928D-DD4C-ABD5-580F5D69FBC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="294">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -44,919 +44,880 @@
     <t>OM_Predict</t>
   </si>
   <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE;</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2,USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , module OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , module OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE </t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE​</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​,OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at1` c4_at1_type NOT NULL, KEY `FK_class5_name_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class5_name` ADD CONSTRAINT `FK_class5_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,P</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `assoc4` ( `c3_at1` c3_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc4_c3_at1_idx` (`c3_at1`), KEY `FK_assoc4_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c3_at1`,`c1_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class5_name` ( `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `assoc3` ( `c4_at1` c4_at1_type NOT NULL, `c1_at1` c1_at1_type NOT NULL, KEY `FK_assoc3_c4_at1_idx` (`c4_at1`), KEY `FK_assoc3_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c4_at1`,`c1_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type, KEY `FK_class6_name_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type(64), `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc4_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc3_c1_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class6_name` ADD CONSTRAINT `FK_class6_name_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class6_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc3 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE, NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc4 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str1 Mapping Strategy of Table class5_name: map_str1 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 ​, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE</t>
-  </si>
-  <si>
-    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 , OM_name_Solution : 0 Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class1_name Attribute c1_at2: c1_at2_type Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at2: c2_at2_type Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class3_name Attribute c3_at2: c3_at2_type Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class4_name Attribute c4_at2: c4_at2_type Table: class4_name Attribute c4_at3: c4_at3_type Table: class4_name Attribute c4_at4: c4_at4_type Table: class5_name Attribute c5_at1: c5_at1_type Primary Key Table: class5_name Attribute c5_at2: c5_at2_type Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table: class6_name Attribute c6_at2: c6_at2_type Table Name: class6_name Table: class1_name Attribute c1_at1: c1_at1_type Primary Key Table: class2_name Attribute c2_at1: c1_at1_type Primary Key Table: class3_name Attribute c3_at1: c3_at1_type Primary Key Table: class4_name Attribute c4_at1: c4_at1_type Primary Key Table: class6_name Attribute c6_at1: c6_at1_type Primary Key Table Name: class1_name Table Name: class2_name Table Name: class3_name Table Name: class4_name Table Name: class5_name Table Name: class6_name Mapping Strategy of Table class1_name: map_str2 Mapping Strategy of Table class2_name: map_str2 Mapping Strategy of Table class3_name: map_str2 Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Association Strategy for assoc2 : assoc_type1 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc1` ( `c6_at1` c6_at1_type NOT NULL, `c4_at1` c4_at1_type NOT NULL, KEY `FK_assoc1_c6_at1_idx` (`c6_at1`), FK_assoc1_c4_at1_idx` (`c4_at1`), PRIMARY KEY (`c6_at1`,`c4_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL, PRIMARY KEY (`c3_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type(64), `c2_at1` c2_at1_type NOT NULL, PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class6_name` ( `c6_at3` c6_at3_type, `c6_at2` c6_at2_type, `c6_at1` c6_at1_type NOT NULL, PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class1_name` ( `c4_at1` c4_at1_type, `c3_at1` c3_at1_type, `c1_at2` c1_at2_type, `c1_at1` c1_at1_type NOT NULL, KEY `FK_class1_name_c4_at1_idx` (`c4_at1`), KEY `FK_class1_name_c3_at1_idx` (`c3_at1`), PRIMARY KEY (`c1_at1`) ); CREATE TABLE `assoc2` ( `c6_at1` c6_at1_type NOT NULL, `c2_at1` c2_at1_type NOT NULL, KEY `FK_assoc2_c6_at1_idx` (`c6_at1`), KEY `FK_assoc2_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at5` c4_at5_type(64), `c4_at2` c4_at2_type(64), `c5_at2` c5_at2_type, `c5_at1` c5_at1_type, `c4_at4` c4_at4_type, `c4_at3` c4_at3_type, `c4_at1` c4_at1_type NOT NULL, PRIMARY KEY (`c4_at1`) ); ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc1_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class1_name` ADD CONSTRAINT `FK_class1_name_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_class1_name_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE, ADD CONSTRAINT `FK_assoc2_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE,NP</t>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE;</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c4_at2`c4_at2_type(64),`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2​,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,moduleOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,moduleOM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass1_name:map_str2MappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc3:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c3_at1`c3_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),KEY`FK_class1_name_c3_at1_idx`(`c3_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_class1_name_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc4:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str2MappingStrategyofTableclass6_name:map_str2MappingStrategyofTableclass5_name:map_str2AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2AssociationStrategyforassoc2:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_name:map_str1MappingStrategyofTableclass5_name:map_str1AssociationStrategyforassoc2:assoc_type1AssociationStrategyforassoc3:assoc_type1AssociationStrategyforassoc4:assoc_type1AssociationStrategyforassoc1:assoc_type2,USEOM_name_0CREATETABLE`assoc1`(`c6_at1`c6_at1_typeNOTNULL,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_assoc1_c6_at1_idx`(`c6_at1`),FK_assoc1_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c6_at1`,`c4_at1`));CREATETABLE`assoc4`(`c3_at1`c3_at1_typeNOTNULL,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_assoc4_c3_at1_idx`(`c3_at1`),KEY`FK_assoc4_c1_at1_idx`(`c1_at1`),PRIMARYKEY(`c3_at1`,`c1_at1`));CREATETABLE`class3_name`(`c3_at2`c3_at2_type(64)`c3_at1`c3_at1_typeNOTNULL,PRIMARYKEY(`c3_at1`));CREATETABLE`class5_name`(`c5_at2`c5_at2_type,`c5_at1`c5_at1_type,`c4_at1`c4_at1_typeNOTNULL,KEY`FK_class5_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c4_at1`));CREATETABLE`class2_name`(`c2_at2`c2_at2_type(64),`c2_at1`c2_at1_typeNOTNULL,PRIMARYKEY(`c2_at1`));CREATETABLE`class6_name`(`c6_at3`c6_at3_type,`c6_at2`c6_at2_type,`c6_at1`c6_at1_typeNOTNULL,`c2_at1`c2_at1_type,KEY`FK_class6_name_c2_at1_idx`(`c2_at1`),PRIMARYKEY(`c6_at1`));CREATETABLE`class1_name`(`c4_at1`c4_at1_type,`c1_at2`c1_at2_type,`c1_at1`c1_at1_typeNOTNULL,KEY`FK_class1_name_c4_at1_idx`(`c4_at1`),PRIMARYKEY(`c1_at1`));CREATETABLE`class4_name`(`c4_at2`c4_at2_type(64),`c4_at4`c4_at4_type,`c4_at3`c4_at3_type,`c4_at1`c4_at1_typeNOTNULL,PRIMARYKEY(`c4_at1`));ALTERTABLE`assoc1`ADDCONSTRAINT`FK_assoc1_c6_at1`FOREIGNKEY(`c6_at1`)REFERENCES`class6_name`(`c6_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc1_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`assoc4`ADDCONSTRAINT`FK_assoc4_c3_at1`FOREIGNKEY(`c3_at1`)REFERENCES`class3_name`(`c3_at1`)ONDELETECASCADEONUPDATECASCADE,ADDCONSTRAINT`FK_assoc4_c1_at1`FOREIGNKEY(`c1_at1`)REFERENCES`class1_name`(`c1_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class5_name`ADDCONSTRAINT`FK_class5_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class6_name`ADDCONSTRAINT`FK_class6_name_c2_at1`FOREIGNKEY(`c2_at1`)REFERENCES`class2_name`(`c2_at1`)ONDELETECASCADEONUPDATECASCADE;ALTERTABLE`class1_name`ADDCONSTRAINT`FK_class1_name_c4_at1`FOREIGNKEY(`c4_at1`)REFERENCES`class4_name`(`c4_at1`)ONDELETECASCADEONUPDATECASCADE,P</t>
+  </si>
+  <si>
+    <t>moduleOM_name:0openDeclarationonesigclass1_nameextendsClassattrSet=c1_at1+c1_at2id=c1_at1noparentisAbstract=No}onesigc1_at1extendsc1_at1_typeonesigc1_at2extendsc1_at2_typeonesigclass2_nameextendsClassattrSet=c2_at1+c2_at2id=c2_at1noparentisAbstract=No}onesigc2_at1extendsc2_at1_typeonesigc2_at2extendsc2_at2_typeonesigclass3_nameextendsClassattrSet=c3_at1+c3_at2id=c3_at1noparentisAbstract=No}onesigc3_at1extendsc3_at1_typeonesigc3_at2extendsc3_at2_typeonesigclass4_nameextendsClassattrSet=c4_at1+c4_at2+c4_at3+c4_at4id=c4_at1noparentisAbstract=No}onesigc4_at1extendsc4_at1_typeonesigc4_at2extendsc4_at2_typeonesigc4_at3extendsc4_at3_typeonesigc4_at4extendsc4_at4_typeonesigclass5_nameextendsClassattrSet=c5_at1+c5_at2oneparentparentinclass4_nameid=c4_at1isAbstract=No}onesigc5_at1extendsc5_at1_typeonesigc5_at2extendsc5_at2_typeonesigclass6_nameextendsClassattrSet=c6_at1+c6_at2+c6_at3id=c6_at1noparentisAbstract=No}onesigc6_at1extendsc6_at1_typeonesigc6_at2extendsc6_at2_typeonesigc6_at3extendsc6_at3_typeonesigassoc1extendsAssociationsrc=class6_namedst=class4_namesrc_multiplicity=src_mlpc2dst_multiplicity=dst_mlpc}onesigassoc2extendsAssociationsrc=class1_namedst=class5_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc3extendsAssociationsrc=class4_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}onesigassoc4extendsAssociationsrc=class3_namedst=class1_namesrc_multiplicity=src_mlpcdst_multiplicity=dst_mlpc}predshowrunshowfor30​,OM_name_Solution:0Table:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class1_nameAttributec1_at2:c1_at2_typeTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at2:c2_at2_typeTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class3_nameAttributec3_at2:c3_at2_typeTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class4_nameAttributec4_at2:c4_at2_typeTable:class4_nameAttributec4_at3:c4_at3_typeTable:class4_nameAttributec4_at4:c4_at4_typeTable:class5_nameAttributec5_at1:c5_at1_typePrimaryKeyTable:class5_nameAttributec5_at2:c5_at2_typeTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTable:class6_nameAttributec6_at2:c6_at2_typeTableName:class6_nameTable:class1_nameAttributec1_at1:c1_at1_typePrimaryKeyTable:class2_nameAttributec2_at1:c1_at1_typePrimaryKeyTable:class3_nameAttributec3_at1:c3_at1_typePrimaryKeyTable:class4_nameAttributec4_at1:c4_at1_typePrimaryKeyTable:class6_nameAttributec6_at1:c6_at1_typePrimaryKeyTableName:class1_nameTableName:class2_nameTableName:class3_nameTableName:class4_nameTableName:class5_nameTableName:class6_nameMappingStrategyofTableclass2_name:map_str2MappingStrategyofTableclass3_name:map_str2MappingStrategyofTableclass4_n